--- a/data/income_statement/3digits/total/823_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/823_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>823-Organisation of conventions and trade shows</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>823-Organisation of conventions and trade shows</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1770908.99467</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2122137.468129999</v>
+        <v>2122137.46813</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>2753262.64627</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2969688.47625</v>
+        <v>2970674.66023</v>
       </c>
       <c r="G5" s="47" t="n">
         <v>3612504.06477</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3906163.08806</v>
+        <v>3909548.52485</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4992194.619</v>
+        <v>5012309.05645</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6136614.1275</v>
+        <v>6138100.467789999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>7649314.91742</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>9070989.45748</v>
+        <v>9162579.96201</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>9717106.420950001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10124386.82579</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5852313.428</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1576559.47726</v>
@@ -998,34 +909,39 @@
         <v>2475129.42944</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2716304.75789</v>
+        <v>2717290.94187</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>3331392.30636</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3562008.54858</v>
+        <v>3565393.53537</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4555488.81775</v>
+        <v>4574096.51445</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5545734.576440001</v>
+        <v>5547214.25384</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6283442.68162</v>
+        <v>6283442.681620001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7950805.35371</v>
+        <v>8036307.3539</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8513400.44545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8914990.149329999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5361164.769</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>145992.76721</v>
@@ -1046,25 +962,30 @@
         <v>285271.33277</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>379582.10465</v>
+        <v>381065.90462</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>495407.07081</v>
+        <v>495407.0708100001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1275183.61175</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>941953.77159</v>
+        <v>947465.3241</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1059813.59359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1062220.30779</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>363954.487</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>48356.75019999999</v>
@@ -1073,37 +994,42 @@
         <v>75671.42912</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>68501.57417000001</v>
+        <v>68501.57416999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>43496.35527</v>
+        <v>43496.35526999999</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>56725.90168</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>58883.20671</v>
+        <v>58883.65671</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>57123.6966</v>
+        <v>57146.63737999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>95472.48025000001</v>
+        <v>95479.14314</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>90688.62405</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>178230.33218</v>
+        <v>178807.28401</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>143892.38191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>147176.36867</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>127194.172</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>17974.57101</v>
@@ -1121,28 +1047,33 @@
         <v>28176.5935</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>35632.00277</v>
+        <v>35642.20575</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>41502.42982</v>
+        <v>41583.81298999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>78894.06636</v>
+        <v>78906.64135999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>77954.58242000002</v>
+        <v>77954.58241999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>110881.98565</v>
+        <v>110965.87944</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>116393.73508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>117148.75161</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>147226.355</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>13717.45242</v>
@@ -1160,28 +1091,33 @@
         <v>19654.62945</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>28150.69839</v>
+        <v>28160.90136999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>38141.83533</v>
+        <v>38223.21850000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>74524.38819</v>
+        <v>74536.96318999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>66300.40394999999</v>
+        <v>66300.40395000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>99372.25528</v>
+        <v>99375.92678000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>104522.2976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>105274.36413</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>139505.541</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4076.79497</v>
@@ -1193,16 +1129,16 @@
         <v>6482.99701</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6686.97884</v>
+        <v>6686.978840000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7504.88102</v>
+        <v>7504.881020000001</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>6801.494070000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2862.31983</v>
+        <v>2862.319829999999</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>3493.34778</v>
@@ -1214,19 +1150,24 @@
         <v>9339.376920000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>9256.47041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9259.420410000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5774.164</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>180.32362</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>363.1051399999999</v>
+        <v>363.10514</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>198.77635</v>
@@ -1238,7 +1179,7 @@
         <v>1017.08303</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>679.81031</v>
+        <v>679.8103100000001</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>498.27466</v>
@@ -1250,16 +1191,21 @@
         <v>1148.19375</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2170.35345</v>
+        <v>2250.57574</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>2614.96707</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1946.65</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1752934.42366</v>
@@ -1271,34 +1217,39 @@
         <v>2731605.07087</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2940025.59532</v>
+        <v>2941011.7793</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3584327.471270001</v>
+        <v>3584327.47127</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3870531.08529</v>
+        <v>3873906.3191</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4950692.189180001</v>
+        <v>4970725.24346</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6057720.06114</v>
+        <v>6059193.82643</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>7571360.335</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8960107.471829999</v>
+        <v>9051614.08257</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9600712.685869999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10007238.07418</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5705087.073</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1337177.65185</v>
@@ -1310,34 +1261,39 @@
         <v>2070146.32299</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2240230.00422</v>
+        <v>2241042.22072</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>2686004.06238</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2865813.41683</v>
+        <v>2868791.01394</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3773704.03888</v>
+        <v>3790950.04061</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4665123.86759</v>
+        <v>4666038.973329999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6048536.451700001</v>
+        <v>6048536.4517</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7055182.514419999</v>
+        <v>7131327.103440001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7648861.656110001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7940537.10938</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4724810.131</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>22467.23119</v>
@@ -1355,10 +1311,10 @@
         <v>61930.88556</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>51812.19648000001</v>
+        <v>51926.49565</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>43641.52704000001</v>
+        <v>44497.42115000001</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>82705.76686</v>
@@ -1367,16 +1323,21 @@
         <v>193792.40059</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>143718.05801</v>
+        <v>143899.68043</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>118796.9475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>121716.2616</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>163218.334</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>117876.3103</v>
@@ -1397,25 +1358,30 @@
         <v>166971.41177</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>251347.67286</v>
+        <v>253084.32313</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>475583.42541</v>
+        <v>475721.7389</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>594864.45403</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>702897.2178800001</v>
+        <v>716449.7586599999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>669213.6381799999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>754956.27899</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>936273.056</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1195729.16392</v>
@@ -1427,34 +1393,39 @@
         <v>1887495.94797</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1983461.10482</v>
+        <v>1984273.32132</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2391614.718640001</v>
+        <v>2391614.71864</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2642314.55544</v>
+        <v>2645177.85338</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3475637.87051</v>
+        <v>3490235.827860001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4100816.2137</v>
+        <v>4101593.00595</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>5250521.82879</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6159949.31647</v>
+        <v>6222219.989809999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6842070.99316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7044651.72114</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3575622.102</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1104.94644</v>
@@ -1475,7 +1446,7 @@
         <v>4715.253140000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3076.96847</v>
+        <v>3132.46847</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>6018.46162</v>
@@ -1484,16 +1455,21 @@
         <v>9357.76829</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>48617.92206</v>
+        <v>48757.67454</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>18780.07727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19212.84765</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>49696.639</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>415756.77181</v>
@@ -1502,37 +1478,42 @@
         <v>481655.84871</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>661458.7478800002</v>
+        <v>661458.74788</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>699795.5911</v>
+        <v>699969.5585800001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>898323.4088899998</v>
+        <v>898323.4088900001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1004717.66846</v>
+        <v>1005115.30516</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1176988.1503</v>
+        <v>1179775.20285</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1392596.19355</v>
+        <v>1393154.8531</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1522823.8833</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1904924.95741</v>
+        <v>1920286.97913</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1951851.02976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2066700.9648</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>980276.942</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>340020.31662</v>
@@ -1544,34 +1525,39 @@
         <v>522054.79374</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>547915.77514</v>
+        <v>548121.2836900001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>662453.9034500001</v>
+        <v>662453.90345</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>750901.54412</v>
+        <v>751033.1240299999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>893805.4090300001</v>
+        <v>897400.3875399999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1058997.50848</v>
+        <v>1060300.65926</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1265487.93613</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1484215.59887</v>
+        <v>1490905.50165</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1602553.9237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1650610.87443</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1208780.101</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>358.38059</v>
@@ -1589,10 +1575,10 @@
         <v>4181.34954</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>179.07761</v>
+        <v>196.64008</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3163.39038</v>
+        <v>3227.77647</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>726.14689</v>
@@ -1606,14 +1592,19 @@
       <c r="M21" s="48" t="n">
         <v>953.86005</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>704.2089999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>53953.92669000001</v>
+        <v>53953.92669</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>59006.04519999999</v>
@@ -1628,28 +1619,33 @@
         <v>167366.25058</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>179024.14217</v>
+        <v>179025.69</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>214273.02992</v>
+        <v>214402.66799</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>254788.41699</v>
+        <v>254788.4314</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>319213.76531</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>318540.11444</v>
+        <v>319187.73925</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>354684.28166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>357298.38709</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>237079.11</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>285708.00934</v>
@@ -1661,37 +1657,42 @@
         <v>414389.28539</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>435306.56789</v>
+        <v>435512.07644</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>490906.30333</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>571698.3243400001</v>
+        <v>571810.7939500001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>676368.98873</v>
+        <v>679769.9430799999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>803482.9446</v>
+        <v>804786.08097</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>881654.6382</v>
+        <v>881654.6381999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1034916.25345</v>
+        <v>1040958.53142</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1246915.78199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1292358.62729</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>970996.782</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>75736.45518999999</v>
+        <v>75736.45519000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>96216.75578000001</v>
@@ -1700,34 +1701,39 @@
         <v>139403.95414</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>151879.81596</v>
+        <v>151848.27489</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>235869.50544</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>253816.12434</v>
+        <v>254082.18113</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>283182.74127</v>
+        <v>282374.81531</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>333598.68507</v>
+        <v>332854.19384</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>257335.94717</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>420709.35854</v>
+        <v>429381.47748</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>349297.10606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>416090.09037</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-228503.159</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>118739.10497</v>
@@ -1739,34 +1745,39 @@
         <v>218746.47554</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>379025.89538</v>
+        <v>379027.83531</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>184181.52576</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>190319.23562</v>
+        <v>190680.45296</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>301250.41162</v>
+        <v>302164.31151</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>294591.85044</v>
+        <v>294711.06537</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>350801.1186800001</v>
+        <v>350801.11868</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>734041.43148</v>
+        <v>734824.2159</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>503608.80082</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>511006.02584</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>584767.019</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>4931.048839999999</v>
@@ -1784,10 +1795,10 @@
         <v>4529.46234</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>825.08101</v>
+        <v>825.0810099999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2717.41302</v>
+        <v>2767.79801</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>8162.10954</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>8747.988090000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>3619.009</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>683.7405699999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>50231.19631000001</v>
+        <v>50231.19631</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>70695.97949</v>
@@ -1826,7 +1842,7 @@
         <v>34369.61365000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>34247.28834</v>
+        <v>34247.28834000001</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>32655.85564</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>54473.3026</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>45311.953</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>12555.83988</v>
@@ -1856,34 +1877,39 @@
         <v>21276.3651</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>28749.8683</v>
+        <v>28751.80823</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>22386.93801</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>32883.80491</v>
+        <v>33190.95832</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>45527.39192</v>
+        <v>45809.3731</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>54453.44950000001</v>
+        <v>54536.27299</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>103430.59025</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>146452.34508</v>
+        <v>146483.13007</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>135908.90254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>136451.5512</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>84183.467</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2529.12023</v>
@@ -1895,7 +1921,7 @@
         <v>3938.61546</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>3612.00985</v>
+        <v>3612.009849999999</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>4496.784890000001</v>
@@ -1904,7 +1930,7 @@
         <v>5220.71524</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4388.21562</v>
+        <v>4388.215619999999</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>3779.53424</v>
@@ -1916,13 +1942,18 @@
         <v>9094.42073</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>11720.13377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>11726.39094</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3567.245</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4298.20307</v>
@@ -1949,28 +1980,33 @@
         <v>4894.336719999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>8133.133269999999</v>
+        <v>8133.13327</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>15917.80992</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>23158.01957</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>24187.40062</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>11457.093</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>9273.201369999999</v>
+        <v>9273.201370000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>465.10093</v>
+        <v>465.1009300000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>785.6089400000001</v>
+        <v>785.60894</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>24996.28873</v>
@@ -1982,10 +2018,10 @@
         <v>17946.80231</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1817.37218</v>
+        <v>1830.74575</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4082.17139</v>
+        <v>4108.33309</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>4637.81729</v>
@@ -1994,52 +2030,62 @@
         <v>4886.57272</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6674.64357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>6674.643569999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>27344.352</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>74079.79349</v>
+        <v>74079.79349000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>45206.60923</v>
+        <v>45206.60922999999</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>99781.90103000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>67364.55275999999</v>
+        <v>67364.55276000001</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>106599.57416</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>78091.99146</v>
+        <v>78133.74318</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>180580.16537</v>
+        <v>180791.57848</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>141951.83111</v>
+        <v>141959.66085</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>120010.50889</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>449630.61409</v>
+        <v>450341.96382</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>195689.80392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>196555.83636</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>311533.055</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>184.17046</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2812.85252</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>723.095</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.39501</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>35.47</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>10199.59205</v>
@@ -2135,31 +2191,36 @@
         <v>14941.68127</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>17291.84622</v>
+        <v>17304.15843</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>28377.06292</v>
+        <v>28733.80996</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>43472.22506999999</v>
+        <v>43474.62507</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>51278.95162000001</v>
+        <v>51278.95162</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>59746.22484999999</v>
+        <v>59786.87455000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>64423.15424</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>69376.05993999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>96992.28</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>92991.04125999998</v>
+        <v>92991.04126</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>54180.96992</v>
@@ -2168,37 +2229,42 @@
         <v>101127.39589</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>81310.08534000001</v>
+        <v>81311.42118999999</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>102916.01159</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>85685.33979</v>
+        <v>85755.50767000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>164414.21286</v>
+        <v>164563.571</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>147618.49954</v>
+        <v>147618.86495</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>137306.99882</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>458273.29731</v>
+        <v>458753.79672</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>245935.71183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>247450.81543</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>324642.544</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>466.0000700000001</v>
+        <v>466.00007</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>1129.85088</v>
@@ -2216,37 +2282,42 @@
         <v>4304.77851</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3331.8949</v>
+        <v>3331.9169</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3734.655519999999</v>
+        <v>3734.65552</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>5841.528240000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7835.48075</v>
+        <v>7836.93075</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9237.98105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>9239.668290000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2305.65</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>18826.22538</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6744.03008</v>
+        <v>6744.030080000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>6896.614970000001</v>
+        <v>6896.61497</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8215.611040000002</v>
+        <v>8215.61104</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>11202.56802</v>
@@ -2255,7 +2326,7 @@
         <v>8381.54545</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>9943.941780000001</v>
+        <v>9954.671779999999</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>18954.42344</v>
@@ -2264,16 +2335,21 @@
         <v>15470.16022</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>47108.41567</v>
+        <v>47150.8503</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>36614.67438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>37216.27737</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>29617.18</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>30.41104</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>36.74274</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2039.44</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>70174.36512</v>
@@ -2324,34 +2405,39 @@
         <v>90419.34</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>64494.10713</v>
+        <v>64495.44298000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>79873.60084999999</v>
+        <v>79873.60085</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>69713.53140000001</v>
+        <v>69783.69928</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>146453.78267</v>
+        <v>146589.3054</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>112404.25459</v>
+        <v>112404.62</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>105037.11731</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>393153.13796</v>
+        <v>393589.51847</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>177522.90031</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>178379.2209</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>251028.188</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>406.66205</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1908.48007</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>208.791</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>16.33432</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>3087.3776</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3503.889790000001</v>
+        <v>3503.88979</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>2639.37615</v>
@@ -2450,7 +2546,7 @@
         <v>3091.00591</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4015.50798</v>
+        <v>4018.59139</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>11145.78294</v>
@@ -2459,16 +2555,21 @@
         <v>8793.45773</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>8125.888279999999</v>
+        <v>8126.12255</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>20598.59896</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>20654.09174</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>39443.295</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>25598.84604</v>
@@ -2483,31 +2584,36 @@
         <v>38759.26747999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>48007.33352</v>
+        <v>48007.33351999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>56811.57627000001</v>
+        <v>56960.96946</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>86674.10717999999</v>
+        <v>86719.34092</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>119042.5214</v>
+        <v>119170.53583</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>144640.88978</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>261484.01873</v>
+        <v>261540.45516</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>263586.1806</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>264104.70376</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>184455.728</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>17424.32148</v>
@@ -2525,28 +2631,33 @@
         <v>31639.86117</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>52524.56954</v>
+        <v>52673.96273000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>81708.33725</v>
+        <v>81753.57098999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>113915.14418</v>
+        <v>114043.15861</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>138855.78863</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>256000.09119</v>
+        <v>256056.52762</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>257938.85623</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>258457.37939</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>180522.137</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>8174.52456</v>
@@ -2564,13 +2675,13 @@
         <v>16367.47235</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4287.00673</v>
+        <v>4287.006729999999</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>4965.769929999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5127.377219999999</v>
+        <v>5127.37722</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>5785.10115</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>5647.32437</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>3933.591</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>75885.67286000001</v>
@@ -2597,34 +2713,39 @@
         <v>221529.95031</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>410836.35852</v>
+        <v>410805.42153</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>269127.68609</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>301638.4439</v>
+        <v>302046.1569600001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>333344.83285</v>
+        <v>333256.2149</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>361529.51457</v>
+        <v>360775.85843</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>326189.17725</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>434993.47398</v>
+        <v>443911.4415</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>343384.0144500001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>415540.59702</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-152834.412</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>11030.30737</v>
@@ -2633,37 +2754,42 @@
         <v>18914.74893</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>49339.57179000001</v>
+        <v>49339.57179</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>27145.18925</v>
+        <v>27211.7806</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>35039.97448</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>49946.57640000001</v>
+        <v>49963.80036</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>45033.66647</v>
+        <v>47650.46296</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>83484.61311999999</v>
+        <v>83545.24200999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>56127.28318999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>78358.51544</v>
+        <v>78401.78209000002</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>119289.76057</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>119928.68393</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>138960.86</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>733.8907399999999</v>
@@ -2681,28 +2807,33 @@
         <v>835.3994799999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>626.09524</v>
+        <v>633.2016600000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>311.22482</v>
+        <v>312.60937</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>4158.7485</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3488.437789999999</v>
+        <v>3488.43779</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2126.86071</v>
+        <v>2131.86071</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>1989.84653</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1080.536</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>10296.41663</v>
@@ -2714,34 +2845,39 @@
         <v>48293.62616</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>26906.78462</v>
+        <v>26973.37597</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>34204.575</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>49320.48116</v>
+        <v>49330.5987</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>44722.44165000001</v>
+        <v>47337.85359000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>79325.86462000001</v>
+        <v>79386.49350999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>52638.84540000001</v>
+        <v>52638.8454</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>76231.65472999999</v>
+        <v>76269.92138</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>117299.91404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>117938.8374</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>137880.324</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>18436.25319</v>
@@ -2753,34 +2889,39 @@
         <v>136826.53718</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>31064.44869</v>
+        <v>31064.93424</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>45845.76251000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>105827.87298</v>
+        <v>105833.5719</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>52273.28019</v>
+        <v>52340.90794</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>145251.35516</v>
+        <v>145261.49842</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>76800.79167999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>134923.99947</v>
+        <v>135334.60193</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>120796.25814</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>124562.677</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>71956.702</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>430.48275</v>
@@ -2801,7 +2942,7 @@
         <v>16.89422</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>132.85338</v>
+        <v>135.12862</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>1207.31602</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>2241.97099</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2821.5</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2378.88425</v>
@@ -2834,13 +2980,13 @@
         <v>2352.80572</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5880.29077</v>
+        <v>5880.290770000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3825.94782</v>
+        <v>3826.02546</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6128.333739999999</v>
+        <v>6149.84374</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>5306.400199999999</v>
@@ -2852,13 +2998,18 @@
         <v>8961.60104</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9966.337539999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9969.210290000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6665.643</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>15626.88619</v>
@@ -2870,37 +3021,42 @@
         <v>134384.42876</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>28476.35217999999</v>
+        <v>28476.83773</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>39872.59888000001</v>
+        <v>39872.59888</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>101985.03094</v>
+        <v>101990.65222</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>46012.09307000001</v>
+        <v>46055.93558</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>138737.63894</v>
+        <v>138747.7822</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>69669.76877000001</v>
+        <v>69669.76877</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>124625.78082</v>
+        <v>125036.38328</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>108587.94961</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>112351.49572</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>62469.559</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>68479.72704</v>
+        <v>68479.72704000001</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>148514.8895</v>
@@ -2909,34 +3065,39 @@
         <v>134042.98492</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>406917.09908</v>
+        <v>406952.26789</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>258321.89806</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>245757.14732</v>
+        <v>246176.38542</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>326105.21913</v>
+        <v>328565.7699199999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>299762.77253</v>
+        <v>299059.60202</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>305515.66876</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>378427.9899499999</v>
+        <v>386978.6216599999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>341877.5168800001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>410906.60395</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-85830.254</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>23359.63937</v>
@@ -2948,34 +3109,39 @@
         <v>44664.74634000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>43127.09895</v>
+        <v>43133.23325</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>61695.20108</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>71512.47411</v>
+        <v>71626.107</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>90259.64380000001</v>
+        <v>90560.18211999998</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>115784.03408</v>
+        <v>115784.18758</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>100231.75317</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>150727.12158</v>
+        <v>152735.26795</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>137546.21975</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>142665.46164</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>74838.459</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>45120.08767</v>
@@ -2984,34 +3150,37 @@
         <v>120569.31812</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>89378.23857999999</v>
+        <v>89378.23858</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>363790.0001299999</v>
+        <v>363819.03464</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>196626.69698</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>174244.67321</v>
+        <v>174550.27842</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>235845.57533</v>
+        <v>238005.5878</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>183978.73845</v>
+        <v>183275.41444</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>205283.91559</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>227700.86837</v>
+        <v>234243.35371</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>204331.29713</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>268241.14231</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-160668.713</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1777</v>
@@ -3041,31 +3213,34 @@
         <v>2097</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="G59" s="35" t="n">
         <v>2241</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2462</v>
+        <v>2469</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2677</v>
+        <v>2702</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2920</v>
+        <v>2934</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3202</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3329</v>
+        <v>3465</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3888</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>